--- a/input_data/admin_data/CHL/gpinter_CHL_2012.xlsx
+++ b/input_data/admin_data/CHL/gpinter_CHL_2012.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
   <si>
     <t>year</t>
   </si>
@@ -204,6 +204,54 @@
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>country</t>
   </si>
   <si>
@@ -393,10 +441,106 @@
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>component</t>
   </si>
   <si>
-    <t>postax</t>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t/>
@@ -644,7 +788,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J79"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -652,31 +796,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="D1" t="s">
-        <v>189</v>
+        <v>237</v>
       </c>
       <c r="E1" t="s">
-        <v>190</v>
+        <v>238</v>
       </c>
       <c r="F1" t="s">
-        <v>191</v>
+        <v>239</v>
       </c>
       <c r="G1" t="s">
-        <v>192</v>
+        <v>240</v>
       </c>
       <c r="H1" t="s">
-        <v>193</v>
+        <v>241</v>
       </c>
       <c r="I1" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="J1" t="s">
-        <v>195</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2">
@@ -684,31 +828,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="D2">
-        <v>1126660.87874176</v>
+        <v>2935298.7715447801</v>
       </c>
       <c r="E2">
-        <v>0.65000000000000002</v>
+        <v>0.48999999999999999</v>
       </c>
       <c r="F2">
-        <v>26326.827811192601</v>
+        <v>11063.292600795599</v>
       </c>
       <c r="G2">
-        <v>0.999946697177443</v>
+        <v>0.99999639685804498</v>
       </c>
       <c r="H2">
-        <v>3218859.4986767401</v>
+        <v>5755467.0495031904</v>
       </c>
       <c r="I2">
-        <v>56384.777775120398</v>
+        <v>40673.391990659002</v>
       </c>
       <c r="J2">
-        <v>122.26537590329301</v>
+        <v>520.23093460343898</v>
       </c>
     </row>
     <row r="3">
@@ -716,29 +860,29 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="D3"/>
       <c r="E3">
-        <v>0.66000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="F3">
-        <v>87290.337968749795</v>
+        <v>70859.233965914405</v>
       </c>
       <c r="G3">
-        <v>0.999446237999007</v>
+        <v>0.999857830411641</v>
       </c>
       <c r="H3">
-        <v>3311873.4610561999</v>
+        <v>5869762.9226534404</v>
       </c>
       <c r="I3">
-        <v>119950.761399984</v>
+        <v>102218.09260883099</v>
       </c>
       <c r="J3">
-        <v>37.940894010994199</v>
+        <v>82.836951433555996</v>
       </c>
     </row>
     <row r="4">
@@ -746,29 +890,29 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="D4"/>
       <c r="E4">
-        <v>0.67000000000000004</v>
+        <v>0.51000000000000001</v>
       </c>
       <c r="F4">
-        <v>153519.13309788899</v>
+        <v>134174.267038566</v>
       </c>
       <c r="G4">
-        <v>0.99838158080123496</v>
+        <v>0.99950959297291897</v>
       </c>
       <c r="H4">
-        <v>3408598.3913488099</v>
+        <v>5987467.9191849604</v>
       </c>
       <c r="I4">
-        <v>188966.536022163</v>
+        <v>167346.78846917301</v>
       </c>
       <c r="J4">
-        <v>22.203085195741501</v>
+        <v>44.624562155901003</v>
       </c>
     </row>
     <row r="5">
@@ -776,29 +920,29 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="D5"/>
       <c r="E5">
-        <v>0.68000000000000005</v>
+        <v>0.52000000000000002</v>
       </c>
       <c r="F5">
-        <v>225385.7258328</v>
+        <v>201138.365848669</v>
       </c>
       <c r="G5">
-        <v>0.99670435440962402</v>
+        <v>0.99893947455740495</v>
       </c>
       <c r="H5">
-        <v>3509211.8868277702</v>
+        <v>6108720.4427415403</v>
       </c>
       <c r="I5">
-        <v>263815.14602294198</v>
+        <v>236189.86548573</v>
       </c>
       <c r="J5">
-        <v>15.569805380803199</v>
+        <v>30.370737163776901</v>
       </c>
     </row>
     <row r="6">
@@ -806,29 +950,29 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="D6"/>
       <c r="E6">
-        <v>0.68999999999999995</v>
+        <v>0.53000000000000003</v>
       </c>
       <c r="F6">
-        <v>303283.712823076</v>
+        <v>271882.23636529403</v>
       </c>
       <c r="G6">
-        <v>0.99436278783000198</v>
+        <v>0.99813482098082396</v>
       </c>
       <c r="H6">
-        <v>3613902.1042730799</v>
+        <v>6233667.9018320898</v>
       </c>
       <c r="I6">
-        <v>344900.72960199299</v>
+        <v>308878.151399542</v>
       </c>
       <c r="J6">
-        <v>11.9159122348957</v>
+        <v>22.927823403132098</v>
       </c>
     </row>
     <row r="7">
@@ -836,29 +980,29 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="D7"/>
       <c r="E7">
-        <v>0.69999999999999996</v>
+        <v>0.54000000000000004</v>
       </c>
       <c r="F7">
-        <v>387627.73951599799</v>
+        <v>346536.721329041</v>
       </c>
       <c r="G7">
-        <v>0.99130152302432994</v>
+        <v>0.99708253235387501</v>
       </c>
       <c r="H7">
-        <v>3722868.81676212</v>
+        <v>6362467.6790153999</v>
       </c>
       <c r="I7">
-        <v>432648.30266263202</v>
+        <v>385542.274153276</v>
       </c>
       <c r="J7">
-        <v>9.6042373577561708</v>
+        <v>18.3601543138459</v>
       </c>
     </row>
     <row r="8">
@@ -866,29 +1010,29 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="D8"/>
       <c r="E8">
-        <v>0.70999999999999996</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F8">
-        <v>478853.085935721</v>
+        <v>425232.11052071903</v>
       </c>
       <c r="G8">
-        <v>0.98746142960468597</v>
+        <v>0.99576906376290597</v>
       </c>
       <c r="H8">
-        <v>3836324.6965586501</v>
+        <v>6495288.2435678998</v>
       </c>
       <c r="I8">
-        <v>527503.10786268604</v>
+        <v>466311.92066953197</v>
       </c>
       <c r="J8">
-        <v>8.0114857964465997</v>
+        <v>15.2746890059974</v>
       </c>
     </row>
     <row r="9">
@@ -896,29 +1040,29 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="D9"/>
       <c r="E9">
-        <v>0.71999999999999997</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F9">
-        <v>577414.75740472402</v>
+        <v>508097.34631989797</v>
       </c>
       <c r="G9">
-        <v>0.982779425304938</v>
+        <v>0.99418042847579302</v>
       </c>
       <c r="H9">
-        <v>3954496.8961549401</v>
+        <v>6632310.4327246798</v>
       </c>
       <c r="I9">
-        <v>629929.39862268802</v>
+        <v>551314.98564118298</v>
       </c>
       <c r="J9">
-        <v>6.8486245726191903</v>
+        <v>13.0532278524222</v>
       </c>
     </row>
     <row r="10">
@@ -926,29 +1070,29 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="D10"/>
       <c r="E10">
-        <v>0.72999999999999998</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F10">
-        <v>683785.93481623405</v>
+        <v>595259.11389773502</v>
       </c>
       <c r="G10">
-        <v>0.97718830724529404</v>
+        <v>0.99230220404771896</v>
       </c>
       <c r="H10">
-        <v>4077629.0256931698</v>
+        <v>6773728.93149406</v>
       </c>
       <c r="I10">
-        <v>740408.49514953</v>
+        <v>640676.59945345903</v>
       </c>
       <c r="J10">
-        <v>5.9633122269311096</v>
+        <v>11.3794627807375</v>
       </c>
     </row>
     <row r="11">
@@ -956,29 +1100,29 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="D11"/>
       <c r="E11">
-        <v>0.73999999999999999</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F11">
-        <v>798455.60263594298</v>
+        <v>686840.805063584</v>
       </c>
       <c r="G11">
-        <v>0.97061660045117504</v>
+        <v>0.99011954173864003</v>
       </c>
       <c r="H11">
-        <v>4205983.6614833102</v>
+        <v>6919753.9870188404</v>
       </c>
       <c r="I11">
-        <v>859435.90887375199</v>
+        <v>734518.02428718004</v>
       </c>
       <c r="J11">
-        <v>5.2676487554199403</v>
+        <v>10.074756677245199</v>
       </c>
     </row>
     <row r="12">
@@ -986,29 +1130,29 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="D12"/>
       <c r="E12">
-        <v>0.75</v>
+        <v>0.58999999999999997</v>
       </c>
       <c r="F12">
-        <v>921925.12763894396</v>
+        <v>782961.34475343302</v>
       </c>
       <c r="G12">
-        <v>0.96298843189495797</v>
+        <v>0.98761717969151996</v>
       </c>
       <c r="H12">
-        <v>4339845.5715876902</v>
+        <v>7070613.4007440004</v>
       </c>
       <c r="I12">
-        <v>987517.28133604606</v>
+        <v>832955.40745710395</v>
       </c>
       <c r="J12">
-        <v>4.7073731276877799</v>
+        <v>9.0306034239412494</v>
       </c>
     </row>
     <row r="13">
@@ -1016,29 +1160,29 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="D13"/>
       <c r="E13">
-        <v>0.76000000000000001</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="F13">
-        <v>1054703.5055082701</v>
+        <v>883733.86956818704</v>
       </c>
       <c r="G13">
-        <v>0.954223440583297</v>
+        <v>0.98477946035769304</v>
       </c>
       <c r="H13">
-        <v>4479525.9170148401</v>
+        <v>7226554.8505761698</v>
       </c>
       <c r="I13">
-        <v>1125162.82142168</v>
+        <v>936098.38196053298</v>
       </c>
       <c r="J13">
-        <v>4.2471897491761004</v>
+        <v>8.1772975999066695</v>
       </c>
     </row>
     <row r="14">
@@ -1046,29 +1190,29 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="D14"/>
       <c r="E14">
-        <v>0.77000000000000002</v>
+        <v>0.60999999999999999</v>
       </c>
       <c r="F14">
-        <v>1197300.92355577</v>
+        <v>989264.24886493699</v>
       </c>
       <c r="G14">
-        <v>0.94423673701834998</v>
+        <v>0.98159035268989803</v>
       </c>
       <c r="H14">
-        <v>4625367.7907362897</v>
+        <v>7387848.6061816998</v>
       </c>
       <c r="I14">
-        <v>1272879.8484080499</v>
+        <v>1044048.50564067</v>
       </c>
       <c r="J14">
-        <v>3.8631623009191101</v>
+        <v>7.4680234473836302</v>
       </c>
     </row>
     <row r="15">
@@ -1076,29 +1220,29 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D15"/>
       <c r="E15">
-        <v>0.78000000000000003</v>
+        <v>0.62</v>
       </c>
       <c r="F15">
-        <v>1350220.2034656301</v>
+        <v>1099649.4409957</v>
       </c>
       <c r="G15">
-        <v>0.93293892884532104</v>
+        <v>0.97803347965277498</v>
       </c>
       <c r="H15">
-        <v>4777753.6062966604</v>
+        <v>7554790.7140906798</v>
       </c>
       <c r="I15">
-        <v>1431162.9551416801</v>
+        <v>1156897.5331866201</v>
       </c>
       <c r="J15">
-        <v>3.53849956772497</v>
+        <v>6.8701810162792096</v>
       </c>
     </row>
     <row r="16">
@@ -1106,29 +1250,29 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C16" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="D16"/>
       <c r="E16">
-        <v>0.79000000000000004</v>
+        <v>0.63</v>
       </c>
       <c r="F16">
-        <v>1513945.5856220401</v>
+        <v>1214975.68083383</v>
       </c>
       <c r="G16">
-        <v>0.92023623380952602</v>
+        <v>0.97409215162033802</v>
       </c>
       <c r="H16">
-        <v>4937115.0658754697</v>
+        <v>7727706.7460070001</v>
       </c>
       <c r="I16">
-        <v>1600481.1935404099</v>
+        <v>1274725.51974787</v>
       </c>
       <c r="J16">
-        <v>3.2610914901851999</v>
+        <v>6.3603797737774803</v>
       </c>
     </row>
     <row r="17">
@@ -1136,29 +1280,29 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C17" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="D17"/>
       <c r="E17">
-        <v>0.80000000000000004</v>
+        <v>0.64000000000000001</v>
       </c>
       <c r="F17">
-        <v>1688928.1944168899</v>
+        <v>1335316.50038867</v>
       </c>
       <c r="G17">
-        <v>0.90603070645219197</v>
+        <v>0.96974940623405903</v>
       </c>
       <c r="H17">
-        <v>5103946.7594922204</v>
+        <v>7906956.2245142004</v>
       </c>
       <c r="I17">
-        <v>1781261.5524075399</v>
+        <v>1397598.76201342</v>
       </c>
       <c r="J17">
-        <v>3.02200340805748</v>
+        <v>5.9214098097437899</v>
       </c>
     </row>
     <row r="18">
@@ -1166,29 +1310,29 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C18" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="D18"/>
       <c r="E18">
-        <v>0.81000000000000005</v>
+        <v>0.65000000000000002</v>
       </c>
       <c r="F18">
-        <v>1875567.3821038001</v>
+        <v>1460730.5930302099</v>
       </c>
       <c r="G18">
-        <v>0.89022061145362597</v>
+        <v>0.96498805527530096</v>
       </c>
       <c r="H18">
-        <v>5278824.9282861501</v>
+        <v>8092937.8662999403</v>
       </c>
       <c r="I18">
-        <v>1973867.8477223299</v>
+        <v>1525567.59340549</v>
       </c>
       <c r="J18">
-        <v>2.8145216101833501</v>
+        <v>5.5403357093463601</v>
       </c>
     </row>
     <row r="19">
@@ -1196,29 +1340,29 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="C19" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="D19"/>
       <c r="E19">
-        <v>0.81999999999999995</v>
+        <v>0.66000000000000003</v>
       </c>
       <c r="F19">
-        <v>2074186.99236947</v>
+        <v>1591259.5450071199</v>
       </c>
       <c r="G19">
-        <v>0.87270098434163501</v>
+        <v>0.95979073904911505</v>
       </c>
       <c r="H19">
-        <v>5462433.6549841398</v>
+        <v>8286095.8155027097</v>
       </c>
       <c r="I19">
-        <v>2178573.9879263099</v>
+        <v>1658664.0662471</v>
       </c>
       <c r="J19">
-        <v>2.6335299927534899</v>
+        <v>5.2072560013870302</v>
       </c>
     </row>
     <row r="20">
@@ -1226,29 +1370,29 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C20" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="D20"/>
       <c r="E20">
-        <v>0.82999999999999996</v>
+        <v>0.67000000000000004</v>
       </c>
       <c r="F20">
-        <v>2285005.4301460399</v>
+        <v>1726925.47754468</v>
       </c>
       <c r="G20">
-        <v>0.85336442949152502</v>
+        <v>0.95413998866442995</v>
       </c>
       <c r="H20">
-        <v>5655601.8706934303</v>
+        <v>8486927.0806316696</v>
       </c>
       <c r="I20">
-        <v>2395530.4383967202</v>
+        <v>1796899.57773059</v>
       </c>
       <c r="J20">
-        <v>2.4750934050655502</v>
+        <v>4.9144721014240096</v>
       </c>
     </row>
     <row r="21">
@@ -1256,29 +1400,29 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="D21"/>
       <c r="E21">
-        <v>0.83999999999999997</v>
+        <v>0.68000000000000005</v>
       </c>
       <c r="F21">
-        <v>2508098.3122327998</v>
+        <v>1867728.6717980099</v>
       </c>
       <c r="G21">
-        <v>0.83210221578022703</v>
+        <v>0.94801829640212998</v>
       </c>
       <c r="H21">
-        <v>5859356.3352119699</v>
+        <v>8695990.4400973301</v>
       </c>
       <c r="I21">
-        <v>2624722.6546990098</v>
+        <v>1940262.5319708099</v>
       </c>
       <c r="J21">
-        <v>2.3361749045617599</v>
+        <v>4.6559174099554603</v>
       </c>
     </row>
     <row r="22">
@@ -1286,29 +1430,29 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C22" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="D22"/>
       <c r="E22">
-        <v>0.84999999999999998</v>
+        <v>0.68999999999999995</v>
       </c>
       <c r="F22">
-        <v>2743352.49893856</v>
+        <v>2013645.29165911</v>
       </c>
       <c r="G22">
-        <v>0.80880574117794601</v>
+        <v>0.94140819404805198</v>
       </c>
       <c r="H22">
-        <v>6074998.5805794997</v>
+        <v>8913917.1468110904</v>
       </c>
       <c r="I22">
-        <v>2865920.4300317401</v>
+        <v>2088716.1825548201</v>
       </c>
       <c r="J22">
-        <v>2.2144433072053298</v>
+        <v>4.42675638243447</v>
       </c>
     </row>
     <row r="23">
@@ -1316,29 +1460,29 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C23" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="D23"/>
       <c r="E23">
-        <v>0.85999999999999999</v>
+        <v>0.69999999999999996</v>
       </c>
       <c r="F23">
-        <v>2990410.6846767501</v>
+        <v>2164625.3823613101</v>
       </c>
       <c r="G23">
-        <v>0.78336844692102403</v>
+        <v>0.93429233857601901</v>
       </c>
       <c r="H23">
-        <v>6304218.4484757697</v>
+        <v>9141423.8456196301</v>
       </c>
       <c r="I23">
-        <v>3118617.8402012899</v>
+        <v>2242196.8769959598</v>
       </c>
       <c r="J23">
-        <v>2.1081447042639998</v>
+        <v>4.2230974098841898</v>
       </c>
     </row>
     <row r="24">
@@ -1346,29 +1490,29 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="C24" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="D24"/>
       <c r="E24">
-        <v>0.87</v>
+        <v>0.70999999999999996</v>
       </c>
       <c r="F24">
-        <v>3248606.9411544302</v>
+        <v>2320591.4157420802</v>
       </c>
       <c r="G24">
-        <v>0.75568826472028805</v>
+        <v>0.92665360381166695</v>
       </c>
       <c r="H24">
-        <v>6549264.6491122702</v>
+        <v>9379328.22384803</v>
       </c>
       <c r="I24">
-        <v>3381965.5281644198</v>
+        <v>2400613.0382679799</v>
       </c>
       <c r="J24">
-        <v>2.01602248833</v>
+        <v>4.0417835557875197</v>
       </c>
     </row>
     <row r="25">
@@ -1376,29 +1520,29 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="C25" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="D25"/>
       <c r="E25">
-        <v>0.88</v>
+        <v>0.71999999999999997</v>
       </c>
       <c r="F25">
-        <v>3516896.7836664701</v>
+        <v>2481437.7907421999</v>
       </c>
       <c r="G25">
-        <v>0.72567066499727795</v>
+        <v>0.918475175565998</v>
       </c>
       <c r="H25">
-        <v>6813206.2425245903</v>
+        <v>9628568.0519044604</v>
       </c>
       <c r="I25">
-        <v>3654702.2359745102</v>
+        <v>2563845.38776113</v>
       </c>
       <c r="J25">
-        <v>1.9372778507936801</v>
+        <v>3.88023753318617</v>
       </c>
     </row>
     <row r="26">
@@ -1406,29 +1550,29 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="C26" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="D26"/>
       <c r="E26">
-        <v>0.89000000000000001</v>
+        <v>0.72999999999999998</v>
       </c>
       <c r="F26">
-        <v>3793793.1539463801</v>
+        <v>2647031.9029742801</v>
       </c>
       <c r="G26">
-        <v>0.69323231282820297</v>
+        <v>0.909740646009363</v>
       </c>
       <c r="H26">
-        <v>7100342.9703927804</v>
+        <v>9890224.4468727391</v>
       </c>
       <c r="I26">
-        <v>3935105.1433723699</v>
+        <v>2731749.1670559202</v>
       </c>
       <c r="J26">
-        <v>1.87156829122506</v>
+        <v>3.7363450118450801</v>
       </c>
     </row>
     <row r="27">
@@ -1436,29 +1580,29 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="D27"/>
       <c r="E27">
-        <v>0.90000000000000002</v>
+        <v>0.73999999999999999</v>
       </c>
       <c r="F27">
-        <v>4077338.8993838299</v>
+        <v>2817217.7052971399</v>
       </c>
       <c r="G27">
-        <v>0.65830516467190003</v>
+        <v>0.90043410047628902</v>
       </c>
       <c r="H27">
-        <v>7416866.7530948203</v>
+        <v>10165550.419173401</v>
       </c>
       <c r="I27">
-        <v>4221010.0221864404</v>
+        <v>2904159.49741275</v>
       </c>
       <c r="J27">
-        <v>1.8190459356262101</v>
+        <v>3.6083652321435302</v>
       </c>
     </row>
     <row r="28">
@@ -1466,29 +1610,29 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C28" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="D28"/>
       <c r="E28">
-        <v>0.91000000000000003</v>
+        <v>0.75</v>
       </c>
       <c r="F28">
-        <v>4365194.6770889703</v>
+        <v>2991823.1477338802</v>
       </c>
       <c r="G28">
-        <v>0.62084038621167303</v>
+        <v>0.89054018601154605</v>
       </c>
       <c r="H28">
-        <v>7771961.9454179704</v>
+        <v>10456006.0560438</v>
       </c>
       <c r="I28">
-        <v>4510033.6579345297</v>
+        <v>3080901.5963274501</v>
       </c>
       <c r="J28">
-        <v>1.78043879376323</v>
+        <v>3.49486100606032</v>
       </c>
     </row>
     <row r="29">
@@ -1496,29 +1640,29 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="C29" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="D29"/>
       <c r="E29">
-        <v>0.92000000000000004</v>
+        <v>0.76000000000000001</v>
       </c>
       <c r="F29">
-        <v>4655049.3167801099</v>
+        <v>3170673.5979826599</v>
       </c>
       <c r="G29">
-        <v>0.58081029603075496</v>
+        <v>0.88004414511038098</v>
       </c>
       <c r="H29">
-        <v>8179702.9813534003</v>
+        <v>10763302.075198701</v>
       </c>
       <c r="I29">
-        <v>4800355.5380826704</v>
+        <v>3261808.4629113302</v>
       </c>
       <c r="J29">
-        <v>1.75716784607801</v>
+        <v>3.3946420981481</v>
       </c>
     </row>
     <row r="30">
@@ -1526,29 +1670,29 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="C30" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="D30"/>
       <c r="E30">
-        <v>0.93000000000000005</v>
+        <v>0.77000000000000002</v>
       </c>
       <c r="F30">
-        <v>4945924.1636690404</v>
+        <v>3353614.44540605</v>
       </c>
       <c r="G30">
-        <v>0.53820337119065897</v>
+        <v>0.86893178920803904</v>
       </c>
       <c r="H30">
-        <v>8662466.9018206503</v>
+        <v>11089453.971385101</v>
       </c>
       <c r="I30">
-        <v>5093089.6254548496</v>
+        <v>3446750.0315891202</v>
       </c>
       <c r="J30">
-        <v>1.7514354476867999</v>
+        <v>3.30671702186158</v>
       </c>
     </row>
     <row r="31">
@@ -1556,29 +1700,29 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="C31" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="D31"/>
       <c r="E31">
-        <v>0.93999999999999995</v>
+        <v>0.78000000000000003</v>
       </c>
       <c r="F31">
-        <v>5242081.7628556602</v>
+        <v>3540547.8143573902</v>
       </c>
       <c r="G31">
-        <v>0.49299820145810602</v>
+        <v>0.85718937284823804</v>
       </c>
       <c r="H31">
-        <v>9257363.1145482901</v>
+        <v>11436849.605012201</v>
       </c>
       <c r="I31">
-        <v>5399534.0119513301</v>
+        <v>3635679.9793408699</v>
       </c>
       <c r="J31">
-        <v>1.7659707599648899</v>
+        <v>3.23024859560834</v>
       </c>
     </row>
     <row r="32">
@@ -1586,29 +1730,29 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="C32" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="D32"/>
       <c r="E32">
-        <v>0.94999999999999996</v>
+        <v>0.79000000000000004</v>
       </c>
       <c r="F32">
-        <v>5565262.7905519595</v>
+        <v>3731491.0432770099</v>
       </c>
       <c r="G32">
-        <v>0.44507309716246901</v>
+        <v>0.84480330838834095</v>
       </c>
       <c r="H32">
-        <v>10028928.9350677</v>
+        <v>11808333.8729013</v>
       </c>
       <c r="I32">
-        <v>5765298.5967684602</v>
+        <v>3828709.8623166699</v>
       </c>
       <c r="J32">
-        <v>1.8020584674085101</v>
+        <v>3.1645081646855999</v>
       </c>
     </row>
     <row r="33">
@@ -1616,29 +1760,29 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C33" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="D33"/>
       <c r="E33">
-        <v>0.95999999999999996</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="F33">
-        <v>5997488.7088428903</v>
+        <v>3926668.9760177201</v>
       </c>
       <c r="G33">
-        <v>0.39390154496295499</v>
+        <v>0.83175962813530302</v>
       </c>
       <c r="H33">
-        <v>11094836.5196425</v>
+        <v>12207315.073430501</v>
       </c>
       <c r="I33">
-        <v>6363319.8103002803</v>
+        <v>4026225.9161364799</v>
       </c>
       <c r="J33">
-        <v>1.84991369859253</v>
+        <v>3.1088220443299801</v>
       </c>
     </row>
     <row r="34">
@@ -1646,29 +1790,29 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C34" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="D34"/>
       <c r="E34">
-        <v>0.96999999999999997</v>
+        <v>0.81000000000000005</v>
       </c>
       <c r="F34">
-        <v>6853809.88970068</v>
+        <v>4126659.2802821202</v>
       </c>
       <c r="G34">
-        <v>0.337422084902118</v>
+        <v>0.81804304856538901</v>
       </c>
       <c r="H34">
-        <v>12672008.7560899</v>
+        <v>12637898.7132881</v>
       </c>
       <c r="I34">
-        <v>7696275.7612768896</v>
+        <v>4229073.1770865601</v>
       </c>
       <c r="J34">
-        <v>1.8488999490826701</v>
+        <v>3.0625011310417798</v>
       </c>
     </row>
     <row r="35">
@@ -1676,29 +1820,29 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="C35" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="D35"/>
       <c r="E35">
-        <v>0.97999999999999998</v>
+        <v>0.81999999999999995</v>
       </c>
       <c r="F35">
-        <v>8738859.4828953594</v>
+        <v>4332621.9103316199</v>
       </c>
       <c r="G35">
-        <v>0.26911159408369101</v>
+        <v>0.80363540727829497</v>
       </c>
       <c r="H35">
-        <v>15159875.253496399</v>
+        <v>13105055.687521501</v>
       </c>
       <c r="I35">
-        <v>10137355.0583714</v>
+        <v>4438847.2099531302</v>
       </c>
       <c r="J35">
-        <v>1.7347658791366201</v>
+        <v>3.0247402055256698</v>
       </c>
     </row>
     <row r="36">
@@ -1706,29 +1850,29 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="C36" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="D36"/>
       <c r="E36">
-        <v>0.98999999999999999</v>
+        <v>0.82999999999999996</v>
       </c>
       <c r="F36">
-        <v>11651278.228747699</v>
+        <v>4546663.9493891103</v>
       </c>
       <c r="G36">
-        <v>0.17913460766615699</v>
+        <v>0.78851310609047698</v>
       </c>
       <c r="H36">
-        <v>20182395.448621299</v>
+        <v>13614832.656790201</v>
       </c>
       <c r="I36">
-        <v>11818031.623195101</v>
+        <v>4658360.4168672999</v>
       </c>
       <c r="J36">
-        <v>1.7322044030177299</v>
+        <v>2.9944664502023501</v>
       </c>
     </row>
     <row r="37">
@@ -1736,29 +1880,29 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C37" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="D37"/>
       <c r="E37">
-        <v>0.99099999999999999</v>
+        <v>0.83999999999999997</v>
       </c>
       <c r="F37">
-        <v>11989312.080530001</v>
+        <v>4772425.7237949204</v>
       </c>
       <c r="G37">
-        <v>0.168645176599381</v>
+        <v>0.77264296550367895</v>
       </c>
       <c r="H37">
-        <v>21111769.207001999</v>
+        <v>14174612.171785399</v>
       </c>
       <c r="I37">
-        <v>12174970.1953307</v>
+        <v>4892396.3764906004</v>
       </c>
       <c r="J37">
-        <v>1.7608824480669201</v>
+        <v>2.9701063970701398</v>
       </c>
     </row>
     <row r="38">
@@ -1766,29 +1910,29 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="C38" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="D38"/>
       <c r="E38">
-        <v>0.99199999999999999</v>
+        <v>0.84999999999999998</v>
       </c>
       <c r="F38">
-        <v>12371571.028287999</v>
+        <v>5016034.9846446002</v>
       </c>
       <c r="G38">
-        <v>0.157838934521528</v>
+        <v>0.75597550928450896</v>
       </c>
       <c r="H38">
-        <v>22228869.083460901</v>
+        <v>14793426.5581384</v>
       </c>
       <c r="I38">
-        <v>12602661.844077799</v>
+        <v>5148948.26037315</v>
       </c>
       <c r="J38">
-        <v>1.7967701137255601</v>
+        <v>2.94922714921745</v>
       </c>
     </row>
     <row r="39">
@@ -1796,29 +1940,29 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="C39" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="D39"/>
       <c r="E39">
-        <v>0.99299999999999999</v>
+        <v>0.85999999999999999</v>
       </c>
       <c r="F39">
-        <v>12859903.2765975</v>
+        <v>5287685.2133723004</v>
       </c>
       <c r="G39">
-        <v>0.14665308252127701</v>
+        <v>0.73843402999699004</v>
       </c>
       <c r="H39">
-        <v>23604041.546229899</v>
+        <v>15482317.865121599</v>
       </c>
       <c r="I39">
-        <v>13199817.0480919</v>
+        <v>5441287.2560601104</v>
       </c>
       <c r="J39">
-        <v>1.8354758226824699</v>
+        <v>2.9279953780091801</v>
       </c>
     </row>
     <row r="40">
@@ -1826,29 +1970,29 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="C40" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="D40"/>
       <c r="E40">
-        <v>0.99399999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="F40">
-        <v>13602882.513832901</v>
+        <v>5604294.2316308497</v>
       </c>
       <c r="G40">
-        <v>0.13493720838634299</v>
+        <v>0.71989660781425102</v>
       </c>
       <c r="H40">
-        <v>25338078.962586299</v>
+        <v>16254704.8350494</v>
       </c>
       <c r="I40">
-        <v>14208865.953330399</v>
+        <v>5791484.4963993598</v>
       </c>
       <c r="J40">
-        <v>1.86269924310672</v>
+        <v>2.9004017568005702</v>
       </c>
     </row>
     <row r="41">
@@ -1856,29 +2000,29 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="C41" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="D41"/>
       <c r="E41">
-        <v>0.995</v>
+        <v>0.88</v>
       </c>
       <c r="F41">
-        <v>14968538.7449085</v>
+        <v>5994073.1424639197</v>
       </c>
       <c r="G41">
-        <v>0.122325724113277</v>
+        <v>0.70016613079248102</v>
       </c>
       <c r="H41">
-        <v>27563921.564437401</v>
+        <v>17126639.863270301</v>
       </c>
       <c r="I41">
-        <v>16062183.8013508</v>
+        <v>6236533.4316121796</v>
       </c>
       <c r="J41">
-        <v>1.84145707434623</v>
+        <v>2.85726240841803</v>
       </c>
     </row>
     <row r="42">
@@ -1886,29 +2030,29 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C42" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="D42"/>
       <c r="E42">
-        <v>0.996</v>
+        <v>0.89000000000000001</v>
       </c>
       <c r="F42">
-        <v>17290844.229178201</v>
+        <v>6504545.4683550699</v>
       </c>
       <c r="G42">
-        <v>0.108069274719837</v>
+        <v>0.67891945739735604</v>
       </c>
       <c r="H42">
-        <v>30439356.005208999</v>
+        <v>18116649.538875502</v>
       </c>
       <c r="I42">
-        <v>18642241.898616198</v>
+        <v>6834167.5946354503</v>
       </c>
       <c r="J42">
-        <v>1.7604320299088001</v>
+        <v>2.78522913353653</v>
       </c>
     </row>
     <row r="43">
@@ -1916,29 +2060,29 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C43" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="D43"/>
       <c r="E43">
-        <v>0.997</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="F43">
-        <v>19955610.884349398</v>
+        <v>7195714.1221248005</v>
       </c>
       <c r="G43">
-        <v>0.091522821168138604</v>
+        <v>0.65563675901964102</v>
       </c>
       <c r="H43">
-        <v>34371727.374073297</v>
+        <v>19244897.733299501</v>
       </c>
       <c r="I43">
-        <v>21034936.184149001</v>
+        <v>7616944.4583910899</v>
       </c>
       <c r="J43">
-        <v>1.7224091797174701</v>
+        <v>2.67449448472764</v>
       </c>
     </row>
     <row r="44">
@@ -1946,29 +2090,29 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="C44" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="D44"/>
       <c r="E44">
-        <v>0.998</v>
+        <v>0.91000000000000003</v>
       </c>
       <c r="F44">
-        <v>22103804.3322822</v>
+        <v>8065123.9570639199</v>
       </c>
       <c r="G44">
-        <v>0.072852663553683694</v>
+        <v>0.62968728998353896</v>
       </c>
       <c r="H44">
-        <v>41040122.969035499</v>
+        <v>20536892.541622698</v>
       </c>
       <c r="I44">
-        <v>26099771.594541501</v>
+        <v>8558625.6870450303</v>
       </c>
       <c r="J44">
-        <v>1.8566995233982</v>
+        <v>2.54638275257199</v>
       </c>
     </row>
     <row r="45">
@@ -1976,29 +2120,29 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="C45" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="D45"/>
       <c r="E45">
-        <v>0.999</v>
+        <v>0.92000000000000004</v>
       </c>
       <c r="F45">
-        <v>31867431.193545502</v>
+        <v>9069496.0277153291</v>
       </c>
       <c r="G45">
-        <v>0.049687066800480198</v>
+        <v>0.60052969359160202</v>
       </c>
       <c r="H45">
-        <v>55980474.3435295</v>
+        <v>22034175.898444898</v>
       </c>
       <c r="I45">
-        <v>32228879.561514899</v>
+        <v>9601729.7808885407</v>
       </c>
       <c r="J45">
-        <v>1.7566673009673901</v>
+        <v>2.4294818401277198</v>
       </c>
     </row>
     <row r="46">
@@ -2006,29 +2150,29 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C46" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="D46"/>
       <c r="E46">
-        <v>0.99909999999999999</v>
+        <v>0.93000000000000005</v>
       </c>
       <c r="F46">
-        <v>32579597.714092601</v>
+        <v>10137335.040315101</v>
       </c>
       <c r="G46">
-        <v>0.046826500664776297</v>
+        <v>0.56781844159242201</v>
       </c>
       <c r="H46">
-        <v>58619540.430419698</v>
+        <v>23810239.629524399</v>
       </c>
       <c r="I46">
-        <v>33038163.380520701</v>
+        <v>10666077.681449</v>
       </c>
       <c r="J46">
-        <v>1.7992714626142601</v>
+        <v>2.3487671596956798</v>
       </c>
     </row>
     <row r="47">
@@ -2036,29 +2180,29 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="C47" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="D47"/>
       <c r="E47">
-        <v>0.99919999999999998</v>
+        <v>0.93999999999999995</v>
       </c>
       <c r="F47">
-        <v>33653889.823385999</v>
+        <v>11186869.3583696</v>
       </c>
       <c r="G47">
-        <v>0.043894104235300997</v>
+        <v>0.53148116041052795</v>
       </c>
       <c r="H47">
-        <v>61817212.561656602</v>
+        <v>26000933.287537001</v>
       </c>
       <c r="I47">
-        <v>34845166.8019991</v>
+        <v>11703951.972156201</v>
       </c>
       <c r="J47">
-        <v>1.83685193260186</v>
+        <v>2.3242367864146201</v>
       </c>
     </row>
     <row r="48">
@@ -2066,29 +2210,29 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C48" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="D48"/>
       <c r="E48">
-        <v>0.99929999999999997</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="F48">
-        <v>36350657.587900199</v>
+        <v>12241615.559935899</v>
       </c>
       <c r="G48">
-        <v>0.040801322062824302</v>
+        <v>0.49160804055773499</v>
       </c>
       <c r="H48">
-        <v>65670361.955892801</v>
+        <v>28860329.550613102</v>
       </c>
       <c r="I48">
-        <v>38301295.2525879</v>
+        <v>12983866.3012549</v>
       </c>
       <c r="J48">
-        <v>1.8065797516068001</v>
+        <v>2.3575588866772299</v>
       </c>
     </row>
     <row r="49">
@@ -2096,29 +2240,29 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="C49" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="D49"/>
       <c r="E49">
-        <v>0.99939999999999996</v>
+        <v>0.95999999999999996</v>
       </c>
       <c r="F49">
-        <v>40341380.6433369</v>
+        <v>13996077.8573208</v>
       </c>
       <c r="G49">
-        <v>0.037401781351394103</v>
+        <v>0.44737449804028401</v>
       </c>
       <c r="H49">
-        <v>70231873.073109403</v>
+        <v>32829445.362952702</v>
       </c>
       <c r="I49">
-        <v>42115577.6310656</v>
+        <v>16099566.5349386</v>
       </c>
       <c r="J49">
-        <v>1.7409387570058199</v>
+        <v>2.3456175149655101</v>
       </c>
     </row>
     <row r="50">
@@ -2126,29 +2270,29 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="C50" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="D50"/>
       <c r="E50">
-        <v>0.99950000000000006</v>
+        <v>0.96999999999999997</v>
       </c>
       <c r="F50">
-        <v>43498983.041318402</v>
+        <v>18641389.383753698</v>
       </c>
       <c r="G50">
-        <v>0.033663693127535997</v>
+        <v>0.39252636233767602</v>
       </c>
       <c r="H50">
-        <v>75855132.161516801</v>
+        <v>38406071.638957299</v>
       </c>
       <c r="I50">
-        <v>45616864.204764701</v>
+        <v>20840410.810100898</v>
       </c>
       <c r="J50">
-        <v>1.7438369096919899</v>
+        <v>2.0602580016073802</v>
       </c>
     </row>
     <row r="51">
@@ -2156,29 +2300,29 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C51" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="D51"/>
       <c r="E51">
-        <v>0.99960000000000004</v>
+        <v>0.97999999999999998</v>
       </c>
       <c r="F51">
-        <v>47734745.368211403</v>
+        <v>22901141.6917248</v>
       </c>
       <c r="G51">
-        <v>0.029614838226698099</v>
+        <v>0.32152707936133701</v>
       </c>
       <c r="H51">
-        <v>83414699.1507027</v>
+        <v>47188902.0533856</v>
       </c>
       <c r="I51">
-        <v>52836852.581325397</v>
+        <v>29132697.3055753</v>
       </c>
       <c r="J51">
-        <v>1.7474629540236799</v>
+        <v>2.0605480149680502</v>
       </c>
     </row>
     <row r="52">
@@ -2186,29 +2330,29 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="C52" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="D52"/>
       <c r="E52">
-        <v>0.99970000000000003</v>
+        <v>0.98999999999999999</v>
       </c>
       <c r="F52">
-        <v>58309323.790323399</v>
+        <v>36158786.339327902</v>
       </c>
       <c r="G52">
-        <v>0.024925152663071701</v>
+        <v>0.22227756654174899</v>
       </c>
       <c r="H52">
-        <v>93607314.673840001</v>
+        <v>65245106.801195897</v>
       </c>
       <c r="I52">
-        <v>64162487.471290998</v>
+        <v>38599844.3686755</v>
       </c>
       <c r="J52">
-        <v>1.60535757558167</v>
+        <v>1.80440533011564</v>
       </c>
     </row>
     <row r="53">
@@ -2216,29 +2360,29 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="C53" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="D53"/>
       <c r="E53">
-        <v>0.99980000000000002</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="F53">
-        <v>77245747.385366604</v>
+        <v>40531367.995825998</v>
       </c>
       <c r="G53">
-        <v>0.019230228069351998</v>
+        <v>0.209127339810873</v>
       </c>
       <c r="H53">
-        <v>108329728.275115</v>
+        <v>68205691.515920401</v>
       </c>
       <c r="I53">
-        <v>88987787.259475306</v>
+        <v>41065707.2091811</v>
       </c>
       <c r="J53">
-        <v>1.4024037819800601</v>
+        <v>1.68278779840208</v>
       </c>
     </row>
     <row r="54">
@@ -2246,29 +2390,29 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="C54" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="D54"/>
       <c r="E54">
-        <v>0.99990000000000001</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="F54">
-        <v>102722030.806486</v>
+        <v>41600046.422536202</v>
       </c>
       <c r="G54">
-        <v>0.0113318631808111</v>
+        <v>0.195137040899131</v>
       </c>
       <c r="H54">
-        <v>127671669.29075401</v>
+        <v>71598189.554262802</v>
       </c>
       <c r="I54">
-        <v>104404218.133463</v>
+        <v>42134385.635891303</v>
       </c>
       <c r="J54">
-        <v>1.2428849808398901</v>
+        <v>1.7211084051934</v>
       </c>
     </row>
     <row r="55">
@@ -2276,29 +2420,29 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C55" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="D55"/>
       <c r="E55">
-        <v>0.99990999999999997</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="F55">
-        <v>106127228.40668701</v>
+        <v>42668724.849246398</v>
       </c>
       <c r="G55">
-        <v>0.0104051937623292</v>
+        <v>0.18078266374190699</v>
       </c>
       <c r="H55">
-        <v>130256941.641551</v>
+        <v>75807304.399744406</v>
       </c>
       <c r="I55">
-        <v>107939800.009951</v>
+        <v>43599999.904142097</v>
       </c>
       <c r="J55">
-        <v>1.2273659040863401</v>
+        <v>1.77664799376078</v>
       </c>
     </row>
     <row r="56">
@@ -2306,29 +2450,29 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C56" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="D56"/>
       <c r="E56">
-        <v>0.99992000000000003</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="F56">
-        <v>109801612.901586</v>
+        <v>46431372.271126598</v>
       </c>
       <c r="G56">
-        <v>0.0094471432784071392</v>
+        <v>0.16592897991019301</v>
       </c>
       <c r="H56">
-        <v>133046584.345486</v>
+        <v>81175188.482344806</v>
       </c>
       <c r="I56">
-        <v>111772702.258588</v>
+        <v>51130546.9755385</v>
       </c>
       <c r="J56">
-        <v>1.2116997267128899</v>
+        <v>1.74828320835186</v>
       </c>
     </row>
     <row r="57">
@@ -2336,29 +2480,29 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="C57" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="D57"/>
       <c r="E57">
-        <v>0.99992999999999999</v>
+        <v>0.995</v>
       </c>
       <c r="F57">
-        <v>113804604.927186</v>
+        <v>54066647.380120903</v>
       </c>
       <c r="G57">
-        <v>0.0084550727772626805</v>
+        <v>0.14850978310773999</v>
       </c>
       <c r="H57">
-        <v>136085710.35791901</v>
+        <v>87184116.783705994</v>
       </c>
       <c r="I57">
-        <v>115973467.132634</v>
+        <v>55089150.068262003</v>
       </c>
       <c r="J57">
-        <v>1.19578386520465</v>
+        <v>1.6125304787395001</v>
       </c>
     </row>
     <row r="58">
@@ -2366,29 +2510,29 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C58" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="D58"/>
       <c r="E58">
-        <v>0.99994000000000005</v>
+        <v>0.996</v>
       </c>
       <c r="F58">
-        <v>118219753.06067</v>
+        <v>56111652.756403103</v>
       </c>
       <c r="G58">
-        <v>0.0074257171892562002</v>
+        <v>0.1297419661474</v>
       </c>
       <c r="H58">
-        <v>139437750.89544699</v>
+        <v>95207858.462567106</v>
       </c>
       <c r="I58">
-        <v>120643861.433486</v>
+        <v>57480251.723797798</v>
       </c>
       <c r="J58">
-        <v>1.17947929415728</v>
+        <v>1.69675733623267</v>
       </c>
     </row>
     <row r="59">
@@ -2396,29 +2540,29 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C59" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="D59"/>
       <c r="E59">
-        <v>0.99995000000000001</v>
+        <v>0.997</v>
       </c>
       <c r="F59">
-        <v>123170636.264525</v>
+        <v>63600653.476205103</v>
       </c>
       <c r="G59">
-        <v>0.0063549081844294303</v>
+        <v>0.11015954670818701</v>
       </c>
       <c r="H59">
-        <v>143196528.78786501</v>
+        <v>107783727.37548999</v>
       </c>
       <c r="I59">
-        <v>125939770.333974</v>
+        <v>70144072.117022097</v>
       </c>
       <c r="J59">
-        <v>1.1625865801353199</v>
+        <v>1.69469528195674</v>
       </c>
     </row>
     <row r="60">
@@ -2426,29 +2570,29 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="C60" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="D60"/>
       <c r="E60">
-        <v>0.99995999999999996</v>
+        <v>0.998</v>
       </c>
       <c r="F60">
-        <v>128853081.332257</v>
+        <v>71657437.603480205</v>
       </c>
       <c r="G60">
-        <v>0.0052370938295540998</v>
+        <v>0.086262806520438606</v>
       </c>
       <c r="H60">
-        <v>147510718.40131399</v>
+        <v>126603555.004724</v>
       </c>
       <c r="I60">
-        <v>132121058.806548</v>
+        <v>77560563.288427398</v>
       </c>
       <c r="J60">
-        <v>1.1447977562984899</v>
+        <v>1.7667887554853801</v>
       </c>
     </row>
     <row r="61">
@@ -2456,29 +2600,29 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="C61" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="D61"/>
       <c r="E61">
-        <v>0.99997000000000003</v>
+        <v>0.999</v>
       </c>
       <c r="F61">
-        <v>135609923.527686</v>
+        <v>90338143.001600593</v>
       </c>
       <c r="G61">
-        <v>0.0040644156856790899</v>
+        <v>0.059839410019778799</v>
       </c>
       <c r="H61">
-        <v>152640604.93286499</v>
+        <v>175646546.721021</v>
       </c>
       <c r="I61">
-        <v>139681028.00602001</v>
+        <v>92429324.652212396</v>
       </c>
       <c r="J61">
-        <v>1.12558580494813</v>
+        <v>1.9443231937799399</v>
       </c>
     </row>
     <row r="62">
@@ -2486,29 +2630,29 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C62" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="D62"/>
       <c r="E62">
-        <v>0.99997999999999998</v>
+        <v>0.99909999999999999</v>
       </c>
       <c r="F62">
-        <v>144144792.25003201</v>
+        <v>94636346.705231294</v>
       </c>
       <c r="G62">
-        <v>0.0028246368787417501</v>
+        <v>0.0566905201845012</v>
       </c>
       <c r="H62">
-        <v>159120393.396319</v>
+        <v>184892904.72866499</v>
       </c>
       <c r="I62">
-        <v>149801857.42521599</v>
+        <v>97109902.565976903</v>
       </c>
       <c r="J62">
-        <v>1.10389276582611</v>
+        <v>1.95371980392017</v>
       </c>
     </row>
     <row r="63">
@@ -2516,29 +2660,509 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C63" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="D63"/>
       <c r="E63">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="F63">
+        <v>99737128.341355905</v>
+      </c>
+      <c r="G63">
+        <v>0.053382172035843702</v>
+      </c>
+      <c r="H63">
+        <v>195865779.99900001</v>
+      </c>
+      <c r="I63">
+        <v>102724166.717664</v>
+      </c>
+      <c r="J63">
+        <v>1.96382012652939</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" t="s">
+        <v>221</v>
+      </c>
+      <c r="D64"/>
+      <c r="E64">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="F64">
+        <v>105922445.952539</v>
+      </c>
+      <c r="G64">
+        <v>0.049882556674249998</v>
+      </c>
+      <c r="H64">
+        <v>209171724.753474</v>
+      </c>
+      <c r="I64">
+        <v>109626594.12626</v>
+      </c>
+      <c r="J64">
+        <v>1.9747629775014699</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" t="s">
+        <v>222</v>
+      </c>
+      <c r="D65"/>
+      <c r="E65">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="F65">
+        <v>113634766.28425699</v>
+      </c>
+      <c r="G65">
+        <v>0.0461477888479222</v>
+      </c>
+      <c r="H65">
+        <v>225762579.858006</v>
+      </c>
+      <c r="I65">
+        <v>118393209.98634</v>
+      </c>
+      <c r="J65">
+        <v>1.98673862973646</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>144</v>
+      </c>
+      <c r="C66" t="s">
+        <v>223</v>
+      </c>
+      <c r="D66"/>
+      <c r="E66">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="F66">
+        <v>123616975.990116</v>
+      </c>
+      <c r="G66">
+        <v>0.0421143592313514</v>
+      </c>
+      <c r="H66">
+        <v>247236453.832335</v>
+      </c>
+      <c r="I66">
+        <v>130038571.73786201</v>
+      </c>
+      <c r="J66">
+        <v>2.00002023874216</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" t="s">
+        <v>224</v>
+      </c>
+      <c r="D67"/>
+      <c r="E67">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="F67">
+        <v>137236943.18313199</v>
+      </c>
+      <c r="G67">
+        <v>0.0376841944727088</v>
+      </c>
+      <c r="H67">
+        <v>276535924.35594499</v>
+      </c>
+      <c r="I67">
+        <v>146566544.086694</v>
+      </c>
+      <c r="J67">
+        <v>2.0150253855984701</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>146</v>
+      </c>
+      <c r="C68" t="s">
+        <v>225</v>
+      </c>
+      <c r="D68"/>
+      <c r="E68">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="F68">
+        <v>157375858.82143399</v>
+      </c>
+      <c r="G68">
+        <v>0.0326909533925272</v>
+      </c>
+      <c r="H68">
+        <v>319859051.11241102</v>
+      </c>
+      <c r="I68">
+        <v>172708851.097307</v>
+      </c>
+      <c r="J68">
+        <v>2.03245309355444</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>147</v>
+      </c>
+      <c r="C69" t="s">
+        <v>226</v>
+      </c>
+      <c r="D69"/>
+      <c r="E69">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="F69">
+        <v>191577516.067022</v>
+      </c>
+      <c r="G69">
+        <v>0.026807094046706701</v>
+      </c>
+      <c r="H69">
+        <v>393434151.11996198</v>
+      </c>
+      <c r="I69">
+        <v>224038205.07959101</v>
+      </c>
+      <c r="J69">
+        <v>2.0536551428212602</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>148</v>
+      </c>
+      <c r="C70" t="s">
+        <v>227</v>
+      </c>
+      <c r="D70"/>
+      <c r="E70">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="F70">
+        <v>270321847.84054601</v>
+      </c>
+      <c r="G70">
+        <v>0.019174542047182001</v>
+      </c>
+      <c r="H70">
+        <v>562830097.16033304</v>
+      </c>
+      <c r="I70">
+        <v>277492159.98985201</v>
+      </c>
+      <c r="J70">
+        <v>2.0820740227121002</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>149</v>
+      </c>
+      <c r="C71" t="s">
+        <v>228</v>
+      </c>
+      <c r="D71"/>
+      <c r="E71">
+        <v>0.99990999999999997</v>
+      </c>
+      <c r="F71">
+        <v>285059669.50578201</v>
+      </c>
+      <c r="G71">
+        <v>0.018229179473945398</v>
+      </c>
+      <c r="H71">
+        <v>594534312.40134203</v>
+      </c>
+      <c r="I71">
+        <v>293541078.87313199</v>
+      </c>
+      <c r="J71">
+        <v>2.0856486413251898</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72" t="s">
+        <v>229</v>
+      </c>
+      <c r="D72"/>
+      <c r="E72">
+        <v>0.99992000000000003</v>
+      </c>
+      <c r="F72">
+        <v>302549396.67784798</v>
+      </c>
+      <c r="G72">
+        <v>0.017229141311842801</v>
+      </c>
+      <c r="H72">
+        <v>632158466.59216201</v>
+      </c>
+      <c r="I72">
+        <v>312791451.71596301</v>
+      </c>
+      <c r="J72">
+        <v>2.0894388603434502</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>151</v>
+      </c>
+      <c r="C73" t="s">
+        <v>230</v>
+      </c>
+      <c r="D73"/>
+      <c r="E73">
+        <v>0.99992999999999999</v>
+      </c>
+      <c r="F73">
+        <v>323757816.33008999</v>
+      </c>
+      <c r="G73">
+        <v>0.0161635208211783</v>
+      </c>
+      <c r="H73">
+        <v>677782325.86047602</v>
+      </c>
+      <c r="I73">
+        <v>336458720.93354398</v>
+      </c>
+      <c r="J73">
+        <v>2.0934855984123599</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>152</v>
+      </c>
+      <c r="C74" t="s">
+        <v>231</v>
+      </c>
+      <c r="D74"/>
+      <c r="E74">
+        <v>0.99994000000000005</v>
+      </c>
+      <c r="F74">
+        <v>350202072.93383402</v>
+      </c>
+      <c r="G74">
+        <v>0.0150172704830742</v>
+      </c>
+      <c r="H74">
+        <v>734669593.34798598</v>
+      </c>
+      <c r="I74">
+        <v>366517980.58306098</v>
+      </c>
+      <c r="J74">
+        <v>2.0978447877057298</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>153</v>
+      </c>
+      <c r="C75" t="s">
+        <v>232</v>
+      </c>
+      <c r="D75"/>
+      <c r="E75">
+        <v>0.99995000000000001</v>
+      </c>
+      <c r="F75">
+        <v>384429400.58405</v>
+      </c>
+      <c r="G75">
+        <v>0.013768614011921801</v>
+      </c>
+      <c r="H75">
+        <v>808299915.90145695</v>
+      </c>
+      <c r="I75">
+        <v>406447978.45103902</v>
+      </c>
+      <c r="J75">
+        <v>2.1025965097191701</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76" t="s">
+        <v>233</v>
+      </c>
+      <c r="D76"/>
+      <c r="E76">
+        <v>0.99995999999999996</v>
+      </c>
+      <c r="F76">
+        <v>431129990.27630901</v>
+      </c>
+      <c r="G76">
+        <v>0.012383923695592399</v>
+      </c>
+      <c r="H76">
+        <v>908762900.26350701</v>
+      </c>
+      <c r="I76">
+        <v>463119631.485704</v>
+      </c>
+      <c r="J76">
+        <v>2.1078628737497098</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" t="s">
+        <v>234</v>
+      </c>
+      <c r="D77"/>
+      <c r="E77">
+        <v>0.99997000000000003</v>
+      </c>
+      <c r="F77">
+        <v>500182963.95383602</v>
+      </c>
+      <c r="G77">
+        <v>0.010806163925537101</v>
+      </c>
+      <c r="H77">
+        <v>1057310656.52167</v>
+      </c>
+      <c r="I77">
+        <v>552757230.16816795</v>
+      </c>
+      <c r="J77">
+        <v>2.1138477971417902</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>156</v>
+      </c>
+      <c r="C78" t="s">
+        <v>235</v>
+      </c>
+      <c r="D78"/>
+      <c r="E78">
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="F78">
+        <v>617454726.74148095</v>
+      </c>
+      <c r="G78">
+        <v>0.0089230260469324394</v>
+      </c>
+      <c r="H78">
+        <v>1309587369.6998301</v>
+      </c>
+      <c r="I78">
+        <v>728757000.61742902</v>
+      </c>
+      <c r="J78">
+        <v>2.1209447640169099</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>157</v>
+      </c>
+      <c r="C79" t="s">
+        <v>236</v>
+      </c>
+      <c r="D79"/>
+      <c r="E79">
         <v>0.99999000000000005</v>
       </c>
-      <c r="F63">
-        <v>156418723.975667</v>
-      </c>
-      <c r="G63">
-        <v>0.0014950277634254701</v>
-      </c>
-      <c r="H63">
-        <v>168438929.36732301</v>
-      </c>
-      <c r="I63">
-        <v>168438929.36732301</v>
-      </c>
-      <c r="J63">
-        <v>1.07684633326587</v>
+      <c r="F79">
+        <v>887455871.13577604</v>
+      </c>
+      <c r="G79">
+        <v>0.0064402907026506404</v>
+      </c>
+      <c r="H79">
+        <v>1890417738.77578</v>
+      </c>
+      <c r="I79">
+        <v>1890417738.77578</v>
+      </c>
+      <c r="J79">
+        <v>2.1301540733021498</v>
       </c>
     </row>
   </sheetData>
